--- a/mcb-test/src/main/resources/template/test template-4.xlsx
+++ b/mcb-test/src/main/resources/template/test template-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old_project\mcb-example\mcb-test\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3551B7BE-EB39-447C-9053-6916682B832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CB9EB-161F-43F8-AA7F-7F45211B9D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F64786E-A6AD-804C-8631-997726A0C159}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AAA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>ddddddddddddddddddddddddddddddddddddddddddddddddddddddddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.bbb}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1CDEEC-A4AA-2D44-B67F-6269235BE191}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -524,11 +520,6 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H2:K2"/>

--- a/mcb-test/src/main/resources/template/test template-4.xlsx
+++ b/mcb-test/src/main/resources/template/test template-4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old_project\mcb-example\mcb-test\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CB9EB-161F-43F8-AA7F-7F45211B9D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081C5D6-9897-43CF-90C6-FD82DD936496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F64786E-A6AD-804C-8631-997726A0C159}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Error" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -528,4 +529,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64861700-1BC9-4BD0-ABEB-095460B52E9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mcb-test/src/main/resources/template/test template-4.xlsx
+++ b/mcb-test/src/main/resources/template/test template-4.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old_project\mcb-example\mcb-test\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081C5D6-9897-43CF-90C6-FD82DD936496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CB9EB-161F-43F8-AA7F-7F45211B9D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F64786E-A6AD-804C-8631-997726A0C159}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Error" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -529,17 +528,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64861700-1BC9-4BD0-ABEB-095460B52E9A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>